--- a/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B781A467-26D5-42AE-A60B-7BE8B11E7058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80567D4C-26C7-4E91-BDC5-72720D77B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A485975E-E302-402E-AA4B-31EFBDBB6099}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{023FEC81-7BC1-4BE5-83D7-27CD85F84D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="561">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,14%</t>
   </si>
   <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>11,82%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,86%</t>
   </si>
   <si>
-    <t>89,18%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1636 +140,1588 @@
     <t>6,42%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>9,28%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>89,13%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>95,67%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>6,57%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
     <t>7,88%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>92,06%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>93,43%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
     <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12E6C83-5FB0-492A-9DE4-37280A9FD69A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51CD13F-63E3-4628-AF4E-1660753F1191}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,7 +2567,7 @@
         <v>14156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>51</v>
@@ -2666,7 +2618,7 @@
         <v>304690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>59</v>
@@ -2806,7 +2758,7 @@
         <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2773,13 @@
         <v>337894</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2836,13 +2788,13 @@
         <v>351666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -2851,13 +2803,13 @@
         <v>689560</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,7 +2865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2928,10 +2880,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2940,13 +2892,13 @@
         <v>14739</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -2955,13 +2907,13 @@
         <v>29251</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,10 +2931,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -2991,13 +2943,13 @@
         <v>192929</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -3006,13 +2958,13 @@
         <v>381725</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3020,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3032,13 @@
         <v>16609</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3095,13 +3047,13 @@
         <v>15802</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3110,13 +3062,13 @@
         <v>32411</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3083,13 @@
         <v>254202</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -3146,13 +3098,13 @@
         <v>262342</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>504</v>
@@ -3161,13 +3113,13 @@
         <v>516544</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,10 +3190,10 @@
         <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3250,13 +3202,13 @@
         <v>39496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3265,13 +3217,13 @@
         <v>87442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3238,13 @@
         <v>567081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -3301,13 +3253,13 @@
         <v>598723</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1133</v>
@@ -3316,13 +3268,13 @@
         <v>1165804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3330,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3390,13 +3342,13 @@
         <v>61552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -3405,13 +3357,13 @@
         <v>70088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3420,13 +3372,13 @@
         <v>131640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3393,13 @@
         <v>681225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -3456,13 +3408,13 @@
         <v>713423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1353</v>
@@ -3471,13 +3423,13 @@
         <v>1394648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3497,13 @@
         <v>226720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -3563,10 +3515,10 @@
         <v>32</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>434</v>
@@ -3575,13 +3527,13 @@
         <v>443804</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,16 +3545,16 @@
         <v>2986</v>
       </c>
       <c r="D29" s="7">
-        <v>3048805</v>
+        <v>3048806</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>3090</v>
@@ -3614,25 +3566,25 @@
         <v>41</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6076</v>
       </c>
       <c r="N29" s="7">
-        <v>6210918</v>
+        <v>6210919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,7 +3596,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3674,7 +3626,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3688,7 +3640,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD7A338-F766-4FB0-95C1-57742E7C46C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CBEFD2-C053-4F4D-8AA2-18A0DD5ACE09}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3729,7 +3681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3834,39 +3786,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,39 +3831,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,39 +3876,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3925,13 @@
         <v>64980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3988,13 +3940,13 @@
         <v>44311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4003,13 +3955,13 @@
         <v>109292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +3976,13 @@
         <v>440547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -4039,13 +3991,13 @@
         <v>478420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>850</v>
@@ -4054,13 +4006,13 @@
         <v>918966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4080,13 @@
         <v>35384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4143,13 +4095,13 @@
         <v>36171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4158,13 +4110,13 @@
         <v>71556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4131,13 @@
         <v>287732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -4194,13 +4146,13 @@
         <v>304849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -4209,13 +4161,13 @@
         <v>592580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4235,13 @@
         <v>59697</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4298,13 +4250,13 @@
         <v>69736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -4313,13 +4265,13 @@
         <v>129433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4286,13 @@
         <v>604489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -4349,13 +4301,13 @@
         <v>598581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>1120</v>
@@ -4364,13 +4316,13 @@
         <v>1203070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4581,7 +4533,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4596,10 +4548,10 @@
         <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4608,10 +4560,10 @@
         <v>28811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>247</v>
@@ -4650,7 +4602,7 @@
         <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4659,13 +4611,13 @@
         <v>250329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -4763,13 +4715,13 @@
         <v>42302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -4778,13 +4730,13 @@
         <v>99097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4751,13 @@
         <v>605993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -4814,13 +4766,13 @@
         <v>651551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -4829,13 +4781,13 @@
         <v>1257544</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4843,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4903,13 +4855,13 @@
         <v>39347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -4918,13 +4870,13 @@
         <v>51891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -4933,13 +4885,13 @@
         <v>91239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4906,13 @@
         <v>737625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>29</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -4969,13 +4921,13 @@
         <v>768504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4984,13 +4936,13 @@
         <v>1506128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5010,13 @@
         <v>322987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -5073,13 +5025,13 @@
         <v>294958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M28" s="7">
         <v>574</v>
@@ -5088,13 +5040,13 @@
         <v>617945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5061,13 @@
         <v>3096201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5124,19 +5076,19 @@
         <v>3250090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>5914</v>
       </c>
       <c r="N29" s="7">
-        <v>6346291</v>
+        <v>6346290</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>302</v>
@@ -5187,7 +5139,7 @@
         <v>6488</v>
       </c>
       <c r="N30" s="7">
-        <v>6964236</v>
+        <v>6964235</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5201,7 +5153,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A176B3-7396-4F34-9854-E4F3942D6A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB1B853-C32D-462B-A8A0-2D85D913F721}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5352,7 +5304,7 @@
         <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>307</v>
@@ -5367,10 +5319,10 @@
         <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5379,13 +5331,13 @@
         <v>57504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5352,13 @@
         <v>261753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5415,13 +5367,13 @@
         <v>263208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
@@ -5430,13 +5382,13 @@
         <v>524960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5456,13 @@
         <v>36642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5519,13 +5471,13 @@
         <v>39663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5534,13 +5486,13 @@
         <v>76305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5507,13 @@
         <v>465933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5570,13 +5522,13 @@
         <v>483421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -5585,10 +5537,10 @@
         <v>949354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>337</v>
@@ -5665,7 +5617,7 @@
         <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5674,13 +5626,13 @@
         <v>25999</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5689,13 +5641,13 @@
         <v>44961</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5662,13 @@
         <v>299603</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>308</v>
@@ -5725,13 +5677,13 @@
         <v>310310</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -5740,13 +5692,13 @@
         <v>609913</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5766,13 @@
         <v>32488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5829,13 +5781,13 @@
         <v>26757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5844,13 +5796,13 @@
         <v>59245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5817,13 @@
         <v>337476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5880,13 +5832,13 @@
         <v>360526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -5895,13 +5847,13 @@
         <v>698002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5909,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5969,13 +5921,13 @@
         <v>13984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5984,13 +5936,13 @@
         <v>17457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5999,13 +5951,13 @@
         <v>31440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +5972,13 @@
         <v>197237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6035,13 +5987,13 @@
         <v>201130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6050,10 +6002,10 @@
         <v>398368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>29</v>
@@ -6112,7 +6064,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6124,13 +6076,13 @@
         <v>18423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6139,13 +6091,13 @@
         <v>25020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -6154,13 +6106,13 @@
         <v>43443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6127,13 @@
         <v>244700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -6190,13 +6142,13 @@
         <v>248095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>480</v>
@@ -6205,13 +6157,13 @@
         <v>492795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>48</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6231,13 @@
         <v>54364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6294,13 +6246,13 @@
         <v>53522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6309,13 +6261,13 @@
         <v>107886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6282,13 @@
         <v>602194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6345,13 +6297,13 @@
         <v>637772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M23" s="7">
         <v>1127</v>
@@ -6360,13 +6312,13 @@
         <v>1239966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6374,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6434,13 +6386,13 @@
         <v>54262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -6449,13 +6401,13 @@
         <v>81365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>421</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -6464,13 +6416,13 @@
         <v>135627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>145</v>
+        <v>413</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6437,13 @@
         <v>724321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>685</v>
@@ -6500,13 +6452,13 @@
         <v>744802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>28</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>1381</v>
@@ -6515,13 +6467,13 @@
         <v>1469123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6541,13 @@
         <v>261133</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7">
         <v>276</v>
@@ -6604,13 +6556,13 @@
         <v>295278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>294</v>
       </c>
       <c r="M28" s="7">
         <v>525</v>
@@ -6619,13 +6571,13 @@
         <v>556411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6592,13 @@
         <v>3133217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="H29" s="7">
         <v>3062</v>
@@ -6655,13 +6607,13 @@
         <v>3249264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M29" s="7">
         <v>6044</v>
@@ -6670,13 +6622,13 @@
         <v>6382481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,7 +6684,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6756,7 +6708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABE5017-E5E8-407C-8E94-F178AFF60229}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF804517-5FBB-4861-B256-7B8B76E97F71}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,7 +6725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6880,13 +6832,13 @@
         <v>21812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>437</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>447</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -6895,13 +6847,13 @@
         <v>18825</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6910,13 +6862,13 @@
         <v>40637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>453</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6883,13 @@
         <v>238486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>456</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -6946,13 +6898,13 @@
         <v>252578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>810</v>
@@ -6961,13 +6913,13 @@
         <v>491063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>462</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +6987,13 @@
         <v>19154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>69</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -7050,13 +7002,13 @@
         <v>36529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -7065,13 +7017,13 @@
         <v>55683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7038,13 @@
         <v>499073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="H8" s="7">
         <v>672</v>
@@ -7101,13 +7053,13 @@
         <v>515847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -7116,13 +7068,13 @@
         <v>1014920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7142,13 @@
         <v>22079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -7205,13 +7157,13 @@
         <v>34631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>470</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>413</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -7220,13 +7172,13 @@
         <v>56710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7193,13 @@
         <v>300161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -7256,13 +7208,13 @@
         <v>338653</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>478</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
@@ -7271,13 +7223,13 @@
         <v>638814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7297,13 @@
         <v>26809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7360,13 +7312,13 @@
         <v>29990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -7375,13 +7327,13 @@
         <v>56799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>497</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7348,13 @@
         <v>295431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -7411,13 +7363,13 @@
         <v>398210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -7426,13 +7378,13 @@
         <v>693641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,7 +7440,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7500,13 +7452,13 @@
         <v>13808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -7515,13 +7467,13 @@
         <v>26685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -7530,13 +7482,13 @@
         <v>40493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7503,13 @@
         <v>182940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>512</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
@@ -7566,13 +7518,13 @@
         <v>205218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>504</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -7581,13 +7533,13 @@
         <v>388158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7595,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7655,13 +7607,13 @@
         <v>22762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>296</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -7670,13 +7622,13 @@
         <v>20100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>293</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -7685,13 +7637,13 @@
         <v>42863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7658,13 @@
         <v>254461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
@@ -7721,13 +7673,13 @@
         <v>255522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>299</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
         <v>766</v>
@@ -7736,13 +7688,13 @@
         <v>509982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>517</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7762,13 @@
         <v>65219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>532</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -7825,13 +7777,13 @@
         <v>68197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -7840,13 +7792,13 @@
         <v>133416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>524</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7813,13 @@
         <v>562535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>540</v>
+        <v>321</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
@@ -7876,13 +7828,13 @@
         <v>736006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="M23" s="7">
         <v>1409</v>
@@ -7891,13 +7843,13 @@
         <v>1298541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,7 +7905,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7965,13 +7917,13 @@
         <v>42019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -7980,13 +7932,13 @@
         <v>50994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -7995,13 +7947,13 @@
         <v>93013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +7968,13 @@
         <v>817409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>542</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H26" s="7">
         <v>995</v>
@@ -8031,13 +7983,13 @@
         <v>814037</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M26" s="7">
         <v>1711</v>
@@ -8046,13 +7998,13 @@
         <v>1631446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8072,13 @@
         <v>233661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="H28" s="7">
         <v>421</v>
@@ -8135,13 +8087,13 @@
         <v>285951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>564</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>657</v>
@@ -8150,13 +8102,13 @@
         <v>519612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,13 +8123,13 @@
         <v>3150497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>570</v>
+        <v>274</v>
       </c>
       <c r="H29" s="7">
         <v>4937</v>
@@ -8186,13 +8138,13 @@
         <v>3516071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>572</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>8076</v>
@@ -8201,13 +8153,13 @@
         <v>6666567</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,7 +8215,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80567D4C-26C7-4E91-BDC5-72720D77B6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A35018-A90B-4EB0-A740-B6B9B0E095CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{023FEC81-7BC1-4BE5-83D7-27CD85F84D0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15A9243C-3523-47D8-B868-0DC15AC0C718}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1639 +77,1687 @@
     <t>7,14%</t>
   </si>
   <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
   </si>
   <si>
     <t>94,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
   </si>
   <si>
     <t>92,48%</t>
@@ -2133,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51CD13F-63E3-4628-AF4E-1660753F1191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13DE1C-F75D-48E1-B09B-19F45AE5CDBA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2567,13 +2615,13 @@
         <v>14156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2582,13 +2630,13 @@
         <v>6708</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -2597,13 +2645,13 @@
         <v>20864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2666,13 @@
         <v>304690</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -2633,13 +2681,13 @@
         <v>328704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -2648,13 +2696,13 @@
         <v>633394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2722,13 +2770,13 @@
         <v>20777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2737,13 +2785,13 @@
         <v>19790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2752,13 +2800,13 @@
         <v>40567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2821,13 @@
         <v>337894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2788,13 +2836,13 @@
         <v>351666</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -2803,13 +2851,13 @@
         <v>689560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2880,10 +2928,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2892,13 +2940,13 @@
         <v>14739</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -2907,13 +2955,13 @@
         <v>29251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,10 +2979,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -2943,13 +2991,13 @@
         <v>192929</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -2958,13 +3006,13 @@
         <v>381725</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3080,13 @@
         <v>16609</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3047,13 +3095,13 @@
         <v>15802</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3062,13 +3110,13 @@
         <v>32411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3131,13 @@
         <v>254202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -3098,13 +3146,13 @@
         <v>262342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>504</v>
@@ -3113,13 +3161,13 @@
         <v>516544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3223,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3187,13 +3235,13 @@
         <v>47946</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3202,13 +3250,13 @@
         <v>39496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3217,13 +3265,13 @@
         <v>87442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3286,13 @@
         <v>567081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -3253,13 +3301,13 @@
         <v>598723</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1133</v>
@@ -3268,13 +3316,13 @@
         <v>1165804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3342,13 +3390,13 @@
         <v>61552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -3357,13 +3405,13 @@
         <v>70088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3372,13 +3420,13 @@
         <v>131640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3441,13 @@
         <v>681225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -3408,13 +3456,13 @@
         <v>713423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1353</v>
@@ -3423,13 +3471,13 @@
         <v>1394648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3545,13 @@
         <v>226720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -3515,10 +3563,10 @@
         <v>32</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>434</v>
@@ -3527,10 +3575,10 @@
         <v>443804</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>17</v>
@@ -3545,16 +3593,16 @@
         <v>2986</v>
       </c>
       <c r="D29" s="7">
-        <v>3048806</v>
+        <v>3048805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3090</v>
@@ -3566,10 +3614,10 @@
         <v>41</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6076</v>
@@ -3578,13 +3626,13 @@
         <v>6210919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3644,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3640,7 +3688,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CBEFD2-C053-4F4D-8AA2-18A0DD5ACE09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6235373E-C8BB-4FDB-8CD0-AFE8A9547AC5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3681,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3786,39 +3834,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,39 +3879,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,39 +3924,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3973,13 @@
         <v>64980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3940,13 +3988,13 @@
         <v>44311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -3955,13 +4003,13 @@
         <v>109292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4024,13 @@
         <v>440547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -3991,13 +4039,13 @@
         <v>478420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>850</v>
@@ -4006,13 +4054,13 @@
         <v>918966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4128,13 @@
         <v>35384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4095,13 +4143,13 @@
         <v>36171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4110,13 +4158,13 @@
         <v>71556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4179,13 @@
         <v>287732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -4146,13 +4194,13 @@
         <v>304849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -4161,13 +4209,13 @@
         <v>592580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4271,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4235,13 +4283,13 @@
         <v>59697</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4250,13 +4298,13 @@
         <v>69736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -4265,13 +4313,13 @@
         <v>129433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>19</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4334,13 @@
         <v>604489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -4301,13 +4349,13 @@
         <v>598581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>1120</v>
@@ -4316,13 +4364,13 @@
         <v>1203070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4426,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4390,13 +4438,13 @@
         <v>25971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4405,13 +4453,13 @@
         <v>21736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4420,13 +4468,13 @@
         <v>47707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4489,13 @@
         <v>186647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -4456,13 +4504,13 @@
         <v>197855</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -4471,13 +4519,13 @@
         <v>384502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4581,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4545,13 +4593,13 @@
         <v>40811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4560,13 +4608,13 @@
         <v>28811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -4575,13 +4623,13 @@
         <v>69622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4644,13 @@
         <v>233170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4611,13 +4659,13 @@
         <v>250329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -4626,13 +4674,13 @@
         <v>483499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,7 +4736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4700,13 +4748,13 @@
         <v>56795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -4715,13 +4763,13 @@
         <v>42302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -4730,13 +4778,13 @@
         <v>99097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,10 +4799,10 @@
         <v>605993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>269</v>
@@ -4766,13 +4814,13 @@
         <v>651551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -4843,7 +4891,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4855,13 +4903,13 @@
         <v>39347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -4870,13 +4918,13 @@
         <v>51891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -4885,13 +4933,13 @@
         <v>91239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4954,13 @@
         <v>737625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -4921,13 +4969,13 @@
         <v>768504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4936,13 +4984,13 @@
         <v>1506128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5058,13 @@
         <v>322987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -5025,13 +5073,13 @@
         <v>294958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M28" s="7">
         <v>574</v>
@@ -5040,13 +5088,13 @@
         <v>617945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5109,13 @@
         <v>3096201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5076,13 +5124,13 @@
         <v>3250090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>5914</v>
@@ -5091,13 +5139,13 @@
         <v>6346290</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5201,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5177,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB1B853-C32D-462B-A8A0-2D85D913F721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E1D0BF-55E8-46EE-9472-0117612FFD6D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5301,13 +5349,13 @@
         <v>32008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5316,13 +5364,13 @@
         <v>25495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5331,13 +5379,13 @@
         <v>57504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5400,13 @@
         <v>261753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5367,13 +5415,13 @@
         <v>263208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
@@ -5382,13 +5430,13 @@
         <v>524960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5504,13 @@
         <v>36642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5471,13 +5519,13 @@
         <v>39663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5486,13 +5534,13 @@
         <v>76305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5555,13 @@
         <v>465933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5522,13 +5570,13 @@
         <v>483421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -5537,13 +5585,13 @@
         <v>949354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5659,13 @@
         <v>18962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5626,13 +5674,13 @@
         <v>25999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5641,13 +5689,13 @@
         <v>44961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5710,13 @@
         <v>299603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>347</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>308</v>
@@ -5677,13 +5725,13 @@
         <v>310310</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -5692,13 +5740,13 @@
         <v>609913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,7 +5802,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5766,13 +5814,13 @@
         <v>32488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5781,13 +5829,13 @@
         <v>26757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5796,13 +5844,13 @@
         <v>59245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5865,13 @@
         <v>337476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5832,13 +5880,13 @@
         <v>360526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -5847,13 +5895,13 @@
         <v>698002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,7 +5957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5921,13 +5969,13 @@
         <v>13984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5936,13 +5984,13 @@
         <v>17457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5951,13 +5999,13 @@
         <v>31440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6020,13 @@
         <v>197237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -5987,13 +6035,13 @@
         <v>201130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6002,13 +6050,13 @@
         <v>398368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,7 +6112,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6076,13 +6124,13 @@
         <v>18423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6091,13 +6139,13 @@
         <v>25020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -6106,13 +6154,13 @@
         <v>43443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>398</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6175,13 @@
         <v>244700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -6142,13 +6190,13 @@
         <v>248095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="M20" s="7">
         <v>480</v>
@@ -6157,13 +6205,13 @@
         <v>492795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>406</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>207</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,7 +6267,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6231,13 +6279,13 @@
         <v>54364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6246,13 +6294,13 @@
         <v>53522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>410</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6261,13 +6309,13 @@
         <v>107886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6330,13 @@
         <v>602194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6297,13 +6345,13 @@
         <v>637772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
         <v>1127</v>
@@ -6312,13 +6360,13 @@
         <v>1239966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,7 +6422,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6386,13 +6434,13 @@
         <v>54262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>410</v>
+        <v>145</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -6401,13 +6449,13 @@
         <v>81365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>19</v>
+        <v>426</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>125</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -6416,13 +6464,13 @@
         <v>135627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6485,13 @@
         <v>724321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>416</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="H26" s="7">
         <v>685</v>
@@ -6452,13 +6500,13 @@
         <v>744802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>28</v>
+        <v>432</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>1381</v>
@@ -6467,13 +6515,13 @@
         <v>1469123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6589,13 @@
         <v>261133</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>276</v>
@@ -6556,13 +6604,13 @@
         <v>295278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>525</v>
@@ -6571,13 +6619,13 @@
         <v>556411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6640,13 @@
         <v>3133217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>3062</v>
@@ -6607,13 +6655,13 @@
         <v>3249264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>447</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>6044</v>
@@ -6622,13 +6670,13 @@
         <v>6382481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,7 +6732,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6708,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF804517-5FBB-4861-B256-7B8B76E97F71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8894611E-0D42-4BC2-9A92-557DB6850612}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6725,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6832,13 +6880,13 @@
         <v>21812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -6847,13 +6895,13 @@
         <v>18825</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>439</v>
+        <v>146</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6862,13 +6910,13 @@
         <v>40637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6931,13 @@
         <v>238486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>462</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -6898,13 +6946,13 @@
         <v>252578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>446</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="M5" s="7">
         <v>810</v>
@@ -6913,13 +6961,13 @@
         <v>491063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +7035,13 @@
         <v>19154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>69</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -7002,13 +7050,13 @@
         <v>36529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -7017,13 +7065,13 @@
         <v>55683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7086,13 @@
         <v>499073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="H8" s="7">
         <v>672</v>
@@ -7053,13 +7101,13 @@
         <v>515847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -7068,13 +7116,13 @@
         <v>1014920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7190,13 @@
         <v>22079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -7157,13 +7205,13 @@
         <v>34631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -7172,13 +7220,13 @@
         <v>56710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>473</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7241,13 @@
         <v>300161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -7208,13 +7256,13 @@
         <v>338653</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
@@ -7223,13 +7271,13 @@
         <v>638814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>481</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>482</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,7 +7333,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7297,13 +7345,13 @@
         <v>26809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7312,13 +7360,13 @@
         <v>29990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -7327,13 +7375,13 @@
         <v>56799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7396,13 @@
         <v>295431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -7363,13 +7411,13 @@
         <v>398210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -7378,13 +7426,13 @@
         <v>693641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,7 +7488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7452,13 +7500,13 @@
         <v>13808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>494</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -7467,13 +7515,13 @@
         <v>26685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -7482,13 +7530,13 @@
         <v>40493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7551,13 @@
         <v>182940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>501</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
@@ -7518,13 +7566,13 @@
         <v>205218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -7533,13 +7581,13 @@
         <v>388158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,7 +7643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7607,13 +7655,13 @@
         <v>22762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>507</v>
+        <v>328</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -7622,13 +7670,13 @@
         <v>20100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>509</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -7637,13 +7685,13 @@
         <v>42863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>512</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,13 +7706,13 @@
         <v>254461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>528</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
@@ -7673,13 +7721,13 @@
         <v>255522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>299</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>515</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>766</v>
@@ -7688,13 +7736,13 @@
         <v>509982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>517</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,7 +7798,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7762,13 +7810,13 @@
         <v>65219</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>534</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -7777,13 +7825,13 @@
         <v>68197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -7792,13 +7840,13 @@
         <v>133416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7861,13 @@
         <v>562535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>321</v>
+        <v>543</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
@@ -7828,13 +7876,13 @@
         <v>736006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
       <c r="M23" s="7">
         <v>1409</v>
@@ -7843,13 +7891,13 @@
         <v>1298541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,7 +7953,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7917,13 +7965,13 @@
         <v>42019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -7932,13 +7980,13 @@
         <v>50994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -7947,13 +7995,13 @@
         <v>93013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +8016,13 @@
         <v>817409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>995</v>
@@ -7983,13 +8031,13 @@
         <v>814037</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>544</v>
+        <v>86</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>1711</v>
@@ -7998,13 +8046,13 @@
         <v>1631446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8120,13 @@
         <v>233661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>564</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="H28" s="7">
         <v>421</v>
@@ -8087,13 +8135,13 @@
         <v>285951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="M28" s="7">
         <v>657</v>
@@ -8102,13 +8150,13 @@
         <v>519612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8171,13 @@
         <v>3150497</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>274</v>
+        <v>572</v>
       </c>
       <c r="H29" s="7">
         <v>4937</v>
@@ -8138,13 +8186,13 @@
         <v>3516071</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="M29" s="7">
         <v>8076</v>
@@ -8153,13 +8201,13 @@
         <v>6666567</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>575</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,7 +8263,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A35018-A90B-4EB0-A740-B6B9B0E095CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E78F3E-05E9-4A01-9368-A6439116D8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15A9243C-3523-47D8-B868-0DC15AC0C718}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0A078D8-C94F-451E-9772-89E71D4D1E80}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,1705 +71,1705 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>4,51%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>94,07%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>93,43%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
     <t>92,12%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13DE1C-F75D-48E1-B09B-19F45AE5CDBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977951BD-4CEC-44FA-9554-BECC02AA9653}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,13 +2615,13 @@
         <v>14156</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2630,13 +2630,13 @@
         <v>6708</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -2645,13 +2645,13 @@
         <v>20864</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2666,13 @@
         <v>304690</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -2681,13 +2681,13 @@
         <v>328704</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>624</v>
@@ -2696,13 +2696,13 @@
         <v>633394</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2758,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2770,13 +2770,13 @@
         <v>20777</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -2785,13 +2785,13 @@
         <v>19790</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2800,13 +2800,13 @@
         <v>40567</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2821,13 @@
         <v>337894</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>364</v>
@@ -2836,13 +2836,13 @@
         <v>351666</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>704</v>
@@ -2851,13 +2851,13 @@
         <v>689560</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2928,10 +2928,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -2940,13 +2940,13 @@
         <v>14739</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -2955,13 +2955,13 @@
         <v>29251</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,10 +2979,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>184</v>
@@ -2991,13 +2991,13 @@
         <v>192929</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>374</v>
@@ -3006,13 +3006,13 @@
         <v>381725</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3080,13 +3080,13 @@
         <v>16609</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -3095,13 +3095,13 @@
         <v>15802</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3110,13 +3110,13 @@
         <v>32411</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3131,13 @@
         <v>254202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -3146,13 +3146,13 @@
         <v>262342</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>504</v>
@@ -3161,13 +3161,13 @@
         <v>516544</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3223,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3235,13 +3235,13 @@
         <v>47946</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -3250,13 +3250,13 @@
         <v>39496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -3265,13 +3265,13 @@
         <v>87442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3286,13 @@
         <v>567081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>583</v>
@@ -3301,13 +3301,13 @@
         <v>598723</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M23" s="7">
         <v>1133</v>
@@ -3316,13 +3316,13 @@
         <v>1165804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3390,13 +3390,13 @@
         <v>61552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -3405,13 +3405,13 @@
         <v>70088</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3420,13 +3420,13 @@
         <v>131640</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3441,13 @@
         <v>681225</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>680</v>
@@ -3456,13 +3456,13 @@
         <v>713423</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1353</v>
@@ -3471,13 +3471,13 @@
         <v>1394648</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3545,13 @@
         <v>226720</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>207</v>
@@ -3563,10 +3563,10 @@
         <v>32</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="M28" s="7">
         <v>434</v>
@@ -3575,13 +3575,13 @@
         <v>443804</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3596,13 @@
         <v>3048805</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>3090</v>
@@ -3614,25 +3614,25 @@
         <v>41</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>6076</v>
       </c>
       <c r="N29" s="7">
-        <v>6210919</v>
+        <v>6210918</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,7 +3674,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6235373E-C8BB-4FDB-8CD0-AFE8A9547AC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B8E6F9-C664-4379-88B0-60764E091473}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3729,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3834,39 +3834,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,39 +3879,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,39 +3924,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3973,13 @@
         <v>64980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3988,13 +3988,13 @@
         <v>44311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4003,13 +4003,13 @@
         <v>109292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4024,13 @@
         <v>440547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -4039,13 +4039,13 @@
         <v>478420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>850</v>
@@ -4054,13 +4054,13 @@
         <v>918966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4128,13 @@
         <v>35384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4143,13 +4143,13 @@
         <v>36171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4158,13 +4158,13 @@
         <v>71556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4179,13 @@
         <v>287732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -4194,13 +4194,13 @@
         <v>304849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -4209,13 +4209,13 @@
         <v>592580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,7 +4271,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4283,13 +4283,13 @@
         <v>59697</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>66</v>
@@ -4298,13 +4298,13 @@
         <v>69736</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -4313,13 +4313,13 @@
         <v>129433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,13 +4334,13 @@
         <v>604489</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -4349,13 +4349,13 @@
         <v>598581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1120</v>
@@ -4364,13 +4364,13 @@
         <v>1203070</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4426,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4438,13 +4438,13 @@
         <v>25971</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4453,13 +4453,13 @@
         <v>21736</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4468,13 +4468,13 @@
         <v>47707</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4489,13 @@
         <v>186647</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -4504,13 +4504,13 @@
         <v>197855</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -4519,13 +4519,13 @@
         <v>384502</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4581,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4593,13 +4593,13 @@
         <v>40811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4608,13 +4608,13 @@
         <v>28811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -4623,13 +4623,13 @@
         <v>69622</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4644,13 @@
         <v>233170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4659,13 +4659,13 @@
         <v>250329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -4674,13 +4674,13 @@
         <v>483499</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4748,13 +4748,13 @@
         <v>56795</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -4763,13 +4763,13 @@
         <v>42302</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>263</v>
+        <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -4778,13 +4778,13 @@
         <v>99097</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4799,13 @@
         <v>605993</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -4814,13 +4814,13 @@
         <v>651551</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -4829,13 +4829,13 @@
         <v>1257544</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4891,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4903,13 +4903,13 @@
         <v>39347</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -4918,13 +4918,13 @@
         <v>51891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -4933,13 +4933,13 @@
         <v>91239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4954,13 @@
         <v>737625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -4969,13 +4969,13 @@
         <v>768504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4984,13 +4984,13 @@
         <v>1506128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5058,13 @@
         <v>322987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -5073,13 +5073,13 @@
         <v>294958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M28" s="7">
         <v>574</v>
@@ -5088,13 +5088,13 @@
         <v>617945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5109,13 @@
         <v>3096201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
@@ -5124,28 +5124,28 @@
         <v>3250090</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>5914</v>
       </c>
       <c r="N29" s="7">
-        <v>6346290</v>
+        <v>6346291</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,7 +5187,7 @@
         <v>6488</v>
       </c>
       <c r="N30" s="7">
-        <v>6964235</v>
+        <v>6964236</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E1D0BF-55E8-46EE-9472-0117612FFD6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A15B67-6089-4C7F-AF66-3C6B9D00C681}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5349,13 +5349,13 @@
         <v>32008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5364,13 +5364,13 @@
         <v>25495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5379,13 +5379,13 @@
         <v>57504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>53</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5400,13 @@
         <v>261753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5415,13 +5415,13 @@
         <v>263208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>487</v>
@@ -5430,13 +5430,13 @@
         <v>524960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5504,13 @@
         <v>36642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5519,13 +5519,13 @@
         <v>39663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5534,13 +5534,13 @@
         <v>76305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5555,13 @@
         <v>465933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5570,13 +5570,13 @@
         <v>483421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -5585,13 +5585,13 @@
         <v>949354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5659,13 @@
         <v>18962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5674,13 +5674,13 @@
         <v>25999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5689,13 +5689,13 @@
         <v>44961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5710,13 @@
         <v>299603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>308</v>
@@ -5725,13 +5725,13 @@
         <v>310310</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -5740,13 +5740,13 @@
         <v>609913</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5802,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5814,13 +5814,13 @@
         <v>32488</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5829,13 +5829,13 @@
         <v>26757</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5844,13 +5844,13 @@
         <v>59245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5865,13 @@
         <v>337476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5880,13 +5880,13 @@
         <v>360526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -5895,13 +5895,13 @@
         <v>698002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,7 +5957,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5969,13 +5969,13 @@
         <v>13984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5984,13 +5984,13 @@
         <v>17457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -5999,13 +5999,13 @@
         <v>31440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6020,13 @@
         <v>197237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6035,13 +6035,13 @@
         <v>201130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6050,13 +6050,13 @@
         <v>398368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>390</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6112,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6124,13 +6124,13 @@
         <v>18423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6139,13 +6139,13 @@
         <v>25020</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>395</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -6154,13 +6154,13 @@
         <v>43443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6175,13 @@
         <v>244700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -6190,13 +6190,13 @@
         <v>248095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>480</v>
@@ -6205,13 +6205,13 @@
         <v>492795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6279,13 +6279,13 @@
         <v>54364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6294,13 +6294,13 @@
         <v>53522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6309,13 +6309,13 @@
         <v>107886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6330,13 @@
         <v>602194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6345,13 +6345,13 @@
         <v>637772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
         <v>1127</v>
@@ -6360,13 +6360,13 @@
         <v>1239966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,7 +6422,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6434,13 +6434,13 @@
         <v>54262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>145</v>
+        <v>420</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -6449,13 +6449,13 @@
         <v>81365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -6464,13 +6464,13 @@
         <v>135627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>429</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6485,13 @@
         <v>724321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H26" s="7">
         <v>685</v>
@@ -6500,13 +6500,13 @@
         <v>744802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>1381</v>
@@ -6515,13 +6515,13 @@
         <v>1469123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>435</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,13 +6589,13 @@
         <v>261133</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>434</v>
       </c>
       <c r="H28" s="7">
         <v>276</v>
@@ -6604,13 +6604,13 @@
         <v>295278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>525</v>
@@ -6619,13 +6619,13 @@
         <v>556411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6640,13 @@
         <v>3133217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>210</v>
+        <v>440</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H29" s="7">
         <v>3062</v>
@@ -6655,13 +6655,13 @@
         <v>3249264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M29" s="7">
         <v>6044</v>
@@ -6670,13 +6670,13 @@
         <v>6382481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>364</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,7 +6732,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6756,7 +6756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8894611E-0D42-4BC2-9A92-557DB6850612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4709F012-4B3B-4A42-B71D-1AE90F748D71}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,7 +6773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6880,13 +6880,13 @@
         <v>21812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>453</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -6895,13 +6895,13 @@
         <v>18825</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>146</v>
+        <v>449</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
@@ -6910,13 +6910,13 @@
         <v>40637</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6931,13 @@
         <v>238486</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>460</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
@@ -6946,13 +6946,13 @@
         <v>252578</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>810</v>
@@ -6961,13 +6961,13 @@
         <v>491063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7035,13 @@
         <v>19154</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -7050,13 +7050,13 @@
         <v>36529</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -7065,13 +7065,13 @@
         <v>55683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>475</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,13 +7086,13 @@
         <v>499073</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H8" s="7">
         <v>672</v>
@@ -7101,13 +7101,13 @@
         <v>515847</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -7116,13 +7116,13 @@
         <v>1014920</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7190,13 @@
         <v>22079</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -7205,13 +7205,13 @@
         <v>34631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -7220,13 +7220,13 @@
         <v>56710</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7241,13 @@
         <v>300161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>493</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
@@ -7256,13 +7256,13 @@
         <v>338653</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>495</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>497</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
@@ -7271,13 +7271,13 @@
         <v>638814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>489</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,7 +7333,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7345,13 +7345,13 @@
         <v>26809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -7360,13 +7360,13 @@
         <v>29990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>494</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -7375,13 +7375,13 @@
         <v>56799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7396,13 @@
         <v>295431</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -7411,13 +7411,13 @@
         <v>398210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>158</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
@@ -7426,13 +7426,13 @@
         <v>693641</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7500,13 +7500,13 @@
         <v>13808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>183</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -7515,13 +7515,13 @@
         <v>26685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>513</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -7530,13 +7530,13 @@
         <v>40493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7551,13 @@
         <v>182940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
@@ -7566,13 +7566,13 @@
         <v>205218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>153</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -7581,13 +7581,13 @@
         <v>388158</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7655,13 +7655,13 @@
         <v>22762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>328</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -7670,13 +7670,13 @@
         <v>20100</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>520</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
@@ -7685,13 +7685,13 @@
         <v>42863</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7706,13 @@
         <v>254461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>338</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
@@ -7721,13 +7721,13 @@
         <v>255522</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>766</v>
@@ -7736,13 +7736,13 @@
         <v>509982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,7 +7798,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7810,13 +7810,13 @@
         <v>65219</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -7825,13 +7825,13 @@
         <v>68197</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -7840,13 +7840,13 @@
         <v>133416</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7861,13 @@
         <v>562535</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
@@ -7876,13 +7876,13 @@
         <v>736006</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
         <v>1409</v>
@@ -7891,13 +7891,13 @@
         <v>1298541</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7953,7 +7953,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7965,13 +7965,13 @@
         <v>42019</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>551</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -7980,13 +7980,13 @@
         <v>50994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>78</v>
+        <v>548</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
@@ -7995,13 +7995,13 @@
         <v>93013</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8016,13 @@
         <v>817409</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>557</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>995</v>
@@ -8031,13 +8031,13 @@
         <v>814037</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>86</v>
+        <v>554</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M26" s="7">
         <v>1711</v>
@@ -8046,13 +8046,13 @@
         <v>1631446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,13 +8120,13 @@
         <v>233661</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>421</v>
@@ -8135,13 +8135,13 @@
         <v>285951</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>657</v>
@@ -8150,13 +8150,13 @@
         <v>519612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,13 +8171,13 @@
         <v>3150497</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H29" s="7">
         <v>4937</v>
@@ -8186,13 +8186,13 @@
         <v>3516071</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M29" s="7">
         <v>8076</v>
@@ -8201,13 +8201,13 @@
         <v>6666567</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8263,7 +8263,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E78F3E-05E9-4A01-9368-A6439116D8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2F82A1-929B-470E-A55B-313CD5606E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B0A078D8-C94F-451E-9772-89E71D4D1E80}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{257CBDD9-734E-49A5-B7BC-D7167C67A0D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="576">
   <si>
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -557,7 +557,58 @@
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>12,85%</t>
@@ -662,192 +713,192 @@
     <t>91,46%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
     <t>95,55%</t>
   </si>
   <si>
@@ -962,9 +1013,6 @@
     <t>10,9%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
     <t>8,83%</t>
   </si>
   <si>
@@ -983,9 +1031,6 @@
     <t>89,1%</t>
   </si>
   <si>
-    <t>85,17%</t>
-  </si>
-  <si>
     <t>91,17%</t>
   </si>
   <si>
@@ -1199,9 +1244,6 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
     <t>4,3%</t>
   </si>
   <si>
@@ -1223,9 +1265,6 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
     <t>89,19%</t>
   </si>
   <si>
@@ -1250,9 +1289,6 @@
     <t>8,28%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
     <t>7,74%</t>
   </si>
   <si>
@@ -1274,9 +1310,6 @@
     <t>91,72%</t>
   </si>
   <si>
-    <t>93,75%</t>
-  </si>
-  <si>
     <t>92,26%</t>
   </si>
   <si>
@@ -1382,394 +1415,358 @@
     <t>Población que ha consumido medicinas para el catarro en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
   </si>
   <si>
     <t>9,67%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977951BD-4CEC-44FA-9554-BECC02AA9653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7942E0-621F-416B-AB7C-42F0D2AB4D10}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3608,7 +3605,7 @@
         <v>3090</v>
       </c>
       <c r="I29" s="7">
-        <v>3162114</v>
+        <v>3162113</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>41</v>
@@ -3659,7 +3656,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3712,7 +3709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B8E6F9-C664-4379-88B0-60764E091473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60943D9B-A9AA-40DD-8BEE-594DA56ECC83}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3830,43 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D4" s="7">
+        <v>36312</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>32069</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N4" s="7">
+        <v>68381</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,43 +3878,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="D5" s="7">
+        <v>253891</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="I5" s="7">
+        <v>248274</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>463</v>
+      </c>
+      <c r="N5" s="7">
+        <v>502165</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,43 +3929,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>280343</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N6" s="7">
+        <v>570546</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,13 +3988,13 @@
         <v>64980</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3988,10 +4003,10 @@
         <v>44311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>143</v>
@@ -4003,13 +4018,13 @@
         <v>109292</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,13 +4039,13 @@
         <v>440547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -4039,13 +4054,13 @@
         <v>478420</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>850</v>
@@ -4054,13 +4069,13 @@
         <v>918966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4143,13 @@
         <v>35384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4143,13 +4158,13 @@
         <v>36171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -4158,13 +4173,13 @@
         <v>71556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,13 +4194,13 @@
         <v>287732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>283</v>
@@ -4194,13 +4209,13 @@
         <v>304849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>566</v>
@@ -4209,13 +4224,13 @@
         <v>592580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,49 +4292,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>59697</v>
+        <v>23386</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>69736</v>
+        <v>37667</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>129433</v>
+        <v>61052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,49 +4343,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>566</v>
+        <v>323</v>
       </c>
       <c r="D14" s="7">
-        <v>604489</v>
+        <v>350596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
-        <v>554</v>
+        <v>334</v>
       </c>
       <c r="I14" s="7">
-        <v>598581</v>
+        <v>350307</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
-        <v>1120</v>
+        <v>657</v>
       </c>
       <c r="N14" s="7">
-        <v>1203070</v>
+        <v>700904</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,10 +4394,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4394,10 +4409,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>668317</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4409,10 +4424,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1242</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1332503</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4438,13 +4453,13 @@
         <v>25971</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>20</v>
@@ -4453,13 +4468,13 @@
         <v>21736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -4468,13 +4483,13 @@
         <v>47707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4504,13 @@
         <v>186647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -4504,13 +4519,13 @@
         <v>197855</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>365</v>
@@ -4519,13 +4534,13 @@
         <v>384502</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4608,13 @@
         <v>40811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -4608,13 +4623,13 @@
         <v>28811</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -4623,13 +4638,13 @@
         <v>69622</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,10 +4659,10 @@
         <v>233170</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>151</v>
@@ -4659,13 +4674,13 @@
         <v>250329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -4674,13 +4689,13 @@
         <v>483499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4763,13 @@
         <v>56795</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="H22" s="7">
         <v>39</v>
@@ -4766,10 +4781,10 @@
         <v>161</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>89</v>
@@ -4778,13 +4793,13 @@
         <v>99097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4814,13 @@
         <v>605993</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>597</v>
@@ -4817,10 +4832,10 @@
         <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -4829,13 +4844,13 @@
         <v>1257544</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4918,13 @@
         <v>39347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="H25" s="7">
         <v>50</v>
@@ -4918,13 +4933,13 @@
         <v>51891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -4933,13 +4948,13 @@
         <v>91239</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4969,13 @@
         <v>737625</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>704</v>
@@ -4969,13 +4984,13 @@
         <v>768504</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>1385</v>
@@ -4984,13 +4999,13 @@
         <v>1506128</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,13 +5073,13 @@
         <v>322987</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>280</v>
@@ -5073,13 +5088,13 @@
         <v>294958</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>574</v>
@@ -5088,13 +5103,13 @@
         <v>617945</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,43 +5124,43 @@
         <v>3096201</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>3006</v>
       </c>
       <c r="I29" s="7">
-        <v>3250090</v>
+        <v>3250089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>5914</v>
       </c>
       <c r="N29" s="7">
-        <v>6346291</v>
+        <v>6346290</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,7 +5187,7 @@
         <v>3286</v>
       </c>
       <c r="I30" s="7">
-        <v>3545048</v>
+        <v>3545047</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -5187,7 +5202,7 @@
         <v>6488</v>
       </c>
       <c r="N30" s="7">
-        <v>6964236</v>
+        <v>6964235</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5225,7 +5240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A15B67-6089-4C7F-AF66-3C6B9D00C681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5ABB5A-7B81-49E6-B4FC-73341E667B74}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5242,7 +5257,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5349,13 +5364,13 @@
         <v>32008</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5364,13 +5379,13 @@
         <v>25495</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5379,13 +5394,13 @@
         <v>57504</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5415,13 @@
         <v>261753</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>251</v>
@@ -5415,10 +5430,10 @@
         <v>263208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>131</v>
@@ -5430,13 +5445,13 @@
         <v>524960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5519,13 @@
         <v>36642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>36</v>
@@ -5519,13 +5534,13 @@
         <v>39663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>70</v>
@@ -5534,13 +5549,13 @@
         <v>76305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5570,13 @@
         <v>465933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>448</v>
@@ -5570,13 +5585,13 @@
         <v>483421</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>889</v>
@@ -5585,13 +5600,13 @@
         <v>949354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5674,13 @@
         <v>18962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5674,13 +5689,13 @@
         <v>25999</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
@@ -5689,13 +5704,13 @@
         <v>44961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5725,13 @@
         <v>299603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>308</v>
@@ -5725,13 +5740,13 @@
         <v>310310</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="M11" s="7">
         <v>623</v>
@@ -5740,13 +5755,13 @@
         <v>609913</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5829,13 @@
         <v>32488</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -5829,13 +5844,13 @@
         <v>26757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>58</v>
@@ -5844,13 +5859,13 @@
         <v>59245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5880,13 @@
         <v>337476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>332</v>
@@ -5880,13 +5895,13 @@
         <v>360526</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>654</v>
@@ -5895,13 +5910,13 @@
         <v>698002</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5984,13 @@
         <v>13984</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -5984,13 +5999,13 @@
         <v>17457</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -6005,7 +6020,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6035,13 @@
         <v>197237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -6035,13 +6050,13 @@
         <v>201130</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>403</v>
@@ -6053,7 +6068,7 @@
         <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>29</v>
@@ -6124,13 +6139,13 @@
         <v>18423</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -6142,10 +6157,10 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -6154,13 +6169,13 @@
         <v>43443</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6190,13 @@
         <v>244700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H20" s="7">
         <v>238</v>
@@ -6193,10 +6208,10 @@
         <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M20" s="7">
         <v>480</v>
@@ -6205,13 +6220,13 @@
         <v>492795</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6294,13 @@
         <v>54364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>224</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -6294,13 +6309,13 @@
         <v>53522</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -6309,13 +6324,13 @@
         <v>107886</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6345,13 @@
         <v>602194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>232</v>
       </c>
       <c r="H23" s="7">
         <v>595</v>
@@ -6345,13 +6360,13 @@
         <v>637772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>1127</v>
@@ -6360,13 +6375,13 @@
         <v>1239966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6449,13 @@
         <v>54262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="H25" s="7">
         <v>70</v>
@@ -6449,13 +6464,13 @@
         <v>81365</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>124</v>
@@ -6464,13 +6479,13 @@
         <v>135627</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,13 +6500,13 @@
         <v>724321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>685</v>
@@ -6500,13 +6515,13 @@
         <v>744802</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
         <v>1381</v>
@@ -6515,10 +6530,10 @@
         <v>1469123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>155</v>
@@ -6589,13 +6604,13 @@
         <v>261133</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>276</v>
@@ -6604,13 +6619,13 @@
         <v>295278</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>525</v>
@@ -6619,13 +6634,13 @@
         <v>556411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,13 +6655,13 @@
         <v>3133217</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>3062</v>
@@ -6655,13 +6670,13 @@
         <v>3249264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>6044</v>
@@ -6670,13 +6685,13 @@
         <v>6382481</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,7 +6771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4709F012-4B3B-4A42-B71D-1AE90F748D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F60D72-35CF-4275-A871-442E1BFE087F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6773,7 +6788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6877,46 +6892,46 @@
         <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>21812</v>
+        <v>25768</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>458</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>18825</v>
+        <v>19943</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>449</v>
+        <v>142</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="M4" s="7">
         <v>59</v>
       </c>
       <c r="N4" s="7">
-        <v>40637</v>
+        <v>45711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,46 +6943,46 @@
         <v>307</v>
       </c>
       <c r="D5" s="7">
-        <v>238486</v>
+        <v>285675</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>466</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="H5" s="7">
         <v>503</v>
       </c>
       <c r="I5" s="7">
-        <v>252578</v>
+        <v>269692</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>457</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="M5" s="7">
         <v>810</v>
       </c>
       <c r="N5" s="7">
-        <v>491063</v>
+        <v>555366</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,7 +6994,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6994,7 +7009,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7009,7 +7024,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7032,46 +7047,46 @@
         <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>19154</v>
+        <v>18907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>36529</v>
+        <v>34343</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>55683</v>
+        <v>53250</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,46 +7098,46 @@
         <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>499073</v>
+        <v>498486</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="H8" s="7">
         <v>672</v>
       </c>
       <c r="I8" s="7">
-        <v>515847</v>
+        <v>478601</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>475</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
       </c>
       <c r="N8" s="7">
-        <v>1014920</v>
+        <v>977087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>477</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,7 +7149,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7149,7 +7164,7 @@
         <v>714</v>
       </c>
       <c r="I9" s="7">
-        <v>552376</v>
+        <v>512944</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7164,7 +7179,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070603</v>
+        <v>1030337</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7187,46 +7202,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>22079</v>
+        <v>21494</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>34631</v>
+        <v>32404</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>56710</v>
+        <v>53898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,46 +7253,46 @@
         <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>300161</v>
+        <v>294556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>490</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="H11" s="7">
         <v>483</v>
       </c>
       <c r="I11" s="7">
-        <v>338653</v>
+        <v>316724</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="M11" s="7">
         <v>816</v>
       </c>
       <c r="N11" s="7">
-        <v>638814</v>
+        <v>611280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>412</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,7 +7304,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7304,7 +7319,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7319,7 +7334,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7342,46 +7357,46 @@
         <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>26809</v>
+        <v>26115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>29990</v>
+        <v>27420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>493</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>494</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>56799</v>
+        <v>53535</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,46 +7408,46 @@
         <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>295431</v>
+        <v>286442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
       </c>
       <c r="I14" s="7">
-        <v>398210</v>
+        <v>447967</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>504</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>319</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>117</v>
       </c>
       <c r="M14" s="7">
         <v>827</v>
       </c>
       <c r="N14" s="7">
-        <v>693641</v>
+        <v>734409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7459,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7459,7 +7474,7 @@
         <v>598</v>
       </c>
       <c r="I15" s="7">
-        <v>428200</v>
+        <v>475387</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7474,7 +7489,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>750440</v>
+        <v>787944</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7497,46 +7512,46 @@
         <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>13808</v>
+        <v>12660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>26685</v>
+        <v>23686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>511</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
       </c>
       <c r="N16" s="7">
-        <v>40493</v>
+        <v>36346</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>513</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>495</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,46 +7563,46 @@
         <v>258</v>
       </c>
       <c r="D17" s="7">
-        <v>182940</v>
+        <v>166082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>440</v>
       </c>
       <c r="I17" s="7">
-        <v>205218</v>
+        <v>184970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>153</v>
+        <v>519</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
       </c>
       <c r="N17" s="7">
-        <v>388158</v>
+        <v>351052</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>520</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,7 +7614,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7614,7 +7629,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7629,7 +7644,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7652,46 +7667,46 @@
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>22762</v>
+        <v>22118</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>20100</v>
+        <v>18668</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>320</v>
+        <v>525</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="M19" s="7">
         <v>65</v>
       </c>
       <c r="N19" s="7">
-        <v>42863</v>
+        <v>40787</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>325</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,46 +7718,46 @@
         <v>342</v>
       </c>
       <c r="D20" s="7">
-        <v>254461</v>
+        <v>247518</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H20" s="7">
         <v>424</v>
       </c>
       <c r="I20" s="7">
-        <v>255522</v>
+        <v>238388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>533</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="M20" s="7">
         <v>766</v>
       </c>
       <c r="N20" s="7">
-        <v>509982</v>
+        <v>485905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>529</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>333</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,7 +7769,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7769,7 +7784,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7784,7 +7799,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7807,46 +7822,46 @@
         <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>65219</v>
+        <v>65695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>532</v>
+        <v>463</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>68197</v>
+        <v>62465</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
       </c>
       <c r="N22" s="7">
-        <v>133416</v>
+        <v>128160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,46 +7873,46 @@
         <v>543</v>
       </c>
       <c r="D23" s="7">
-        <v>562535</v>
+        <v>558584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="H23" s="7">
         <v>866</v>
       </c>
       <c r="I23" s="7">
-        <v>736006</v>
+        <v>786800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M23" s="7">
         <v>1409</v>
       </c>
       <c r="N23" s="7">
-        <v>1298541</v>
+        <v>1345384</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>425</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,7 +7924,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7924,7 +7939,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7939,7 +7954,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7962,46 +7977,46 @@
         <v>46</v>
       </c>
       <c r="D25" s="7">
-        <v>42019</v>
+        <v>35873</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>466</v>
+        <v>554</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
       </c>
       <c r="I25" s="7">
-        <v>50994</v>
+        <v>42563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>111</v>
       </c>
       <c r="N25" s="7">
-        <v>93013</v>
+        <v>78436</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,46 +8028,46 @@
         <v>716</v>
       </c>
       <c r="D26" s="7">
-        <v>817409</v>
+        <v>892847</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>474</v>
+        <v>561</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>995</v>
       </c>
       <c r="I26" s="7">
-        <v>814037</v>
+        <v>672288</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>1711</v>
       </c>
       <c r="N26" s="7">
-        <v>1631446</v>
+        <v>1565136</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,7 +8079,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8079,7 +8094,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8094,7 +8109,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8117,46 +8132,46 @@
         <v>236</v>
       </c>
       <c r="D28" s="7">
-        <v>233661</v>
+        <v>228631</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>560</v>
+        <v>495</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>561</v>
+        <v>356</v>
       </c>
       <c r="H28" s="7">
         <v>421</v>
       </c>
       <c r="I28" s="7">
-        <v>285951</v>
+        <v>261492</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>563</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>564</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>657</v>
       </c>
       <c r="N28" s="7">
-        <v>519612</v>
+        <v>490123</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>565</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,46 +8183,46 @@
         <v>3139</v>
       </c>
       <c r="D29" s="7">
-        <v>3150497</v>
+        <v>3230189</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>569</v>
+        <v>365</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>570</v>
+        <v>503</v>
       </c>
       <c r="H29" s="7">
         <v>4937</v>
       </c>
       <c r="I29" s="7">
-        <v>3516071</v>
+        <v>3395429</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>572</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>573</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>8076</v>
       </c>
       <c r="N29" s="7">
-        <v>6666567</v>
+        <v>6625618</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8219,7 +8234,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8234,7 +8249,7 @@
         <v>5358</v>
       </c>
       <c r="I30" s="7">
-        <v>3802022</v>
+        <v>3656921</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8249,7 +8264,7 @@
         <v>8733</v>
       </c>
       <c r="N30" s="7">
-        <v>7186179</v>
+        <v>7115741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
